--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H2">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01636166666666667</v>
+        <v>0.1278363333333334</v>
       </c>
       <c r="N2">
-        <v>0.049085</v>
+        <v>0.383509</v>
       </c>
       <c r="O2">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="P2">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="Q2">
-        <v>0.2183484759672223</v>
+        <v>0.4754601405306668</v>
       </c>
       <c r="R2">
-        <v>1.965136283705001</v>
+        <v>4.279141264776</v>
       </c>
       <c r="S2">
-        <v>5.113214574855096E-05</v>
+        <v>0.0001050875910040713</v>
       </c>
       <c r="T2">
-        <v>5.113214574855096E-05</v>
+        <v>0.0001050875910040713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H3">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I3">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J3">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.350895</v>
       </c>
       <c r="O3">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="P3">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="Q3">
-        <v>1.560912467648333</v>
+        <v>0.4350265209199999</v>
       </c>
       <c r="R3">
-        <v>14.048212208835</v>
+        <v>3.91523868828</v>
       </c>
       <c r="S3">
-        <v>0.0003655294750420247</v>
+        <v>9.615083412742229E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003655294750420248</v>
+        <v>9.615083412742229E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.719288</v>
+      </c>
+      <c r="H4">
+        <v>11.157864</v>
+      </c>
+      <c r="I4">
+        <v>0.04235839908674209</v>
+      </c>
+      <c r="J4">
+        <v>0.04235839908674209</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>13.34512433333334</v>
-      </c>
-      <c r="H4">
-        <v>40.03537300000001</v>
-      </c>
-      <c r="I4">
-        <v>0.1597931014925399</v>
-      </c>
-      <c r="J4">
-        <v>0.1597931014925399</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.6714140000000001</v>
+        <v>0.04120633333333334</v>
       </c>
       <c r="N4">
-        <v>2.014242</v>
+        <v>0.123619</v>
       </c>
       <c r="O4">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="P4">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="Q4">
-        <v>8.960103309140669</v>
+        <v>0.1532582210906667</v>
       </c>
       <c r="R4">
-        <v>80.64092978226603</v>
+        <v>1.379323989816</v>
       </c>
       <c r="S4">
-        <v>0.002098248253373796</v>
+        <v>3.387358031319288E-05</v>
       </c>
       <c r="T4">
-        <v>0.002098248253373796</v>
+        <v>3.387358031319288E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H5">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I5">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J5">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.32711433333333</v>
+        <v>51.241888</v>
       </c>
       <c r="N5">
-        <v>150.981343</v>
+        <v>153.725664</v>
       </c>
       <c r="O5">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="P5">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
       <c r="Q5">
-        <v>671.6215981162155</v>
+        <v>190.583339135744</v>
       </c>
       <c r="R5">
-        <v>6044.594383045939</v>
+        <v>1715.250052221696</v>
       </c>
       <c r="S5">
-        <v>0.1572781916183755</v>
+        <v>0.0421232870812974</v>
       </c>
       <c r="T5">
-        <v>0.1572781916183755</v>
+        <v>0.0421232870812974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>78.478283</v>
       </c>
       <c r="I6">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J6">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01636166666666667</v>
+        <v>0.1278363333333334</v>
       </c>
       <c r="N6">
-        <v>0.049085</v>
+        <v>0.383509</v>
       </c>
       <c r="O6">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="P6">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="Q6">
-        <v>0.4280118356727778</v>
+        <v>3.344125315005223</v>
       </c>
       <c r="R6">
-        <v>3.852106521055001</v>
+        <v>30.097127835047</v>
       </c>
       <c r="S6">
-        <v>0.0001002304388284837</v>
+        <v>0.0007391283588512787</v>
       </c>
       <c r="T6">
-        <v>0.0001002304388284837</v>
+        <v>0.0007391283588512787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>78.478283</v>
       </c>
       <c r="I7">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J7">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.350895</v>
       </c>
       <c r="O7">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="P7">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="Q7">
         <v>3.059737457031666</v>
@@ -883,10 +883,10 @@
         <v>27.537637113285</v>
       </c>
       <c r="S7">
-        <v>0.0007165195035697419</v>
+        <v>0.0006762721226336784</v>
       </c>
       <c r="T7">
-        <v>0.000716519503569742</v>
+        <v>0.0006762721226336784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>78.478283</v>
       </c>
       <c r="I8">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J8">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.6714140000000001</v>
+        <v>0.04120633333333334</v>
       </c>
       <c r="N8">
-        <v>2.014242</v>
+        <v>0.123619</v>
       </c>
       <c r="O8">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="P8">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="Q8">
-        <v>17.56380596738734</v>
+        <v>1.077934096241889</v>
       </c>
       <c r="R8">
-        <v>158.074253706486</v>
+        <v>9.701406866177001</v>
       </c>
       <c r="S8">
-        <v>0.004113035745477491</v>
+        <v>0.0002382481469609219</v>
       </c>
       <c r="T8">
-        <v>0.004113035745477491</v>
+        <v>0.0002382481469609219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>78.478283</v>
       </c>
       <c r="I9">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J9">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.32711433333333</v>
+        <v>51.241888</v>
       </c>
       <c r="N9">
-        <v>150.981343</v>
+        <v>153.725664</v>
       </c>
       <c r="O9">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="P9">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
       <c r="Q9">
-        <v>1316.528507074896</v>
+        <v>1340.458462639435</v>
       </c>
       <c r="R9">
-        <v>11848.75656367407</v>
+        <v>12064.12616375491</v>
       </c>
       <c r="S9">
-        <v>0.3083004230172927</v>
+        <v>0.2962720503186185</v>
       </c>
       <c r="T9">
-        <v>0.3083004230172927</v>
+        <v>0.2962720503186185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H10">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I10">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J10">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01636166666666667</v>
+        <v>0.1278363333333334</v>
       </c>
       <c r="N10">
-        <v>0.049085</v>
+        <v>0.383509</v>
       </c>
       <c r="O10">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="P10">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="Q10">
-        <v>0.05978686620277777</v>
+        <v>0.805321685780889</v>
       </c>
       <c r="R10">
-        <v>0.538081795825</v>
+        <v>7.247895172028</v>
       </c>
       <c r="S10">
-        <v>1.400069656079697E-05</v>
+        <v>0.0001779945545963022</v>
       </c>
       <c r="T10">
-        <v>1.400069656079697E-05</v>
+        <v>0.0001779945545963022</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H11">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I11">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J11">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.350895</v>
       </c>
       <c r="O11">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="P11">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="Q11">
-        <v>0.4273996621416666</v>
+        <v>0.7368363009266665</v>
       </c>
       <c r="R11">
-        <v>3.846596959274999</v>
+        <v>6.631526708339999</v>
       </c>
       <c r="S11">
-        <v>0.0001000870819945167</v>
+        <v>0.000162857714512748</v>
       </c>
       <c r="T11">
-        <v>0.0001000870819945167</v>
+        <v>0.000162857714512748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H12">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I12">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J12">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.6714140000000001</v>
+        <v>0.04120633333333334</v>
       </c>
       <c r="N12">
-        <v>2.014242</v>
+        <v>0.123619</v>
       </c>
       <c r="O12">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="P12">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="Q12">
-        <v>2.453401588143334</v>
+        <v>0.2595846811275556</v>
       </c>
       <c r="R12">
-        <v>22.08061429329</v>
+        <v>2.336262130148</v>
       </c>
       <c r="S12">
-        <v>0.0005745297146177612</v>
+        <v>5.73741655206013E-05</v>
       </c>
       <c r="T12">
-        <v>0.0005745297146177612</v>
+        <v>5.73741655206013E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H13">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I13">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J13">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.32711433333333</v>
+        <v>51.241888</v>
       </c>
       <c r="N13">
-        <v>150.981343</v>
+        <v>153.725664</v>
       </c>
       <c r="O13">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="P13">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
       <c r="Q13">
-        <v>183.8993858216705</v>
+        <v>322.8049690626986</v>
       </c>
       <c r="R13">
-        <v>1655.094472395035</v>
+        <v>2905.244721564288</v>
       </c>
       <c r="S13">
-        <v>0.04306496831383533</v>
+        <v>0.07134729848243668</v>
       </c>
       <c r="T13">
-        <v>0.04306496831383533</v>
+        <v>0.07134729848243668</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>40.356388</v>
+        <v>51.62686066666667</v>
       </c>
       <c r="H14">
-        <v>121.069164</v>
+        <v>154.880582</v>
       </c>
       <c r="I14">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="J14">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.01636166666666667</v>
+        <v>0.1278363333333334</v>
       </c>
       <c r="N14">
-        <v>0.049085</v>
+        <v>0.383509</v>
       </c>
       <c r="O14">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="P14">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="Q14">
-        <v>0.6602977683266668</v>
+        <v>6.599788569137557</v>
       </c>
       <c r="R14">
-        <v>5.942679914940001</v>
+        <v>59.39809712223801</v>
       </c>
       <c r="S14">
-        <v>0.0001546264134794802</v>
+        <v>0.00145870457425261</v>
       </c>
       <c r="T14">
-        <v>0.0001546264134794802</v>
+        <v>0.00145870457425261</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>40.356388</v>
+        <v>51.62686066666667</v>
       </c>
       <c r="H15">
-        <v>121.069164</v>
+        <v>154.880582</v>
       </c>
       <c r="I15">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="J15">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.350895</v>
       </c>
       <c r="O15">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="P15">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="Q15">
-        <v>4.720284922419999</v>
+        <v>6.038535757876666</v>
       </c>
       <c r="R15">
-        <v>42.48256430178</v>
+        <v>54.34682182088999</v>
       </c>
       <c r="S15">
-        <v>0.001105381182802937</v>
+        <v>0.00133465483621602</v>
       </c>
       <c r="T15">
-        <v>0.001105381182802938</v>
+        <v>0.00133465483621602</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>40.356388</v>
+        <v>51.62686066666667</v>
       </c>
       <c r="H16">
-        <v>121.069164</v>
+        <v>154.880582</v>
       </c>
       <c r="I16">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="J16">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.6714140000000001</v>
+        <v>0.04120633333333334</v>
       </c>
       <c r="N16">
-        <v>2.014242</v>
+        <v>0.123619</v>
       </c>
       <c r="O16">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="P16">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="Q16">
-        <v>27.095843892632</v>
+        <v>2.127353629584222</v>
       </c>
       <c r="R16">
-        <v>243.8625950336881</v>
+        <v>19.146182666258</v>
       </c>
       <c r="S16">
-        <v>0.006345217812768364</v>
+        <v>0.0004701939218233038</v>
       </c>
       <c r="T16">
-        <v>0.006345217812768366</v>
+        <v>0.0004701939218233038</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.356388</v>
+        <v>51.62686066666667</v>
       </c>
       <c r="H17">
-        <v>121.069164</v>
+        <v>154.880582</v>
       </c>
       <c r="I17">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="J17">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.32711433333333</v>
+        <v>51.241888</v>
       </c>
       <c r="N17">
-        <v>150.981343</v>
+        <v>153.725664</v>
       </c>
       <c r="O17">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="P17">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
       <c r="Q17">
-        <v>2031.020552956361</v>
+        <v>2645.457812072938</v>
       </c>
       <c r="R17">
-        <v>18279.18497660725</v>
+        <v>23809.12030865645</v>
       </c>
       <c r="S17">
-        <v>0.4756178785862324</v>
+        <v>0.5847068237168352</v>
       </c>
       <c r="T17">
-        <v>0.4756178785862326</v>
+        <v>0.5847068237168354</v>
       </c>
     </row>
   </sheetData>
